--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,91 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>26200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>76400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,71 +1619,78 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>360200</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>358700</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>357600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>4100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1609,11 +1701,11 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,13 +1745,16 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>100</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1665,138 +1763,153 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>360400</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>359200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>358100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>821600</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>360200</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>358700</v>
       </c>
       <c r="G47" s="3">
+        <v>357600</v>
+      </c>
+      <c r="H47" s="3">
         <v>355600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>353900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>352700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>136900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1876,14 +1995,17 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1208700</v>
+      </c>
+      <c r="E54" s="3">
         <v>360400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>359200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>358100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>356300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>354800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>353700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,46 +2095,50 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,72 +2151,81 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E66" s="3">
         <v>20000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>15700</v>
       </c>
       <c r="H66" s="3">
         <v>15700</v>
       </c>
       <c r="I66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J66" s="3">
         <v>15800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4500</v>
       </c>
       <c r="F72" s="3">
         <v>4500</v>
       </c>
       <c r="G72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H72" s="3">
         <v>3100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>400</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1184500</v>
+      </c>
+      <c r="E76" s="3">
         <v>340400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>342000</v>
       </c>
       <c r="F76" s="3">
         <v>342000</v>
       </c>
       <c r="G76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="H76" s="3">
         <v>340600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>339200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>337900</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-242300</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>359600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3117,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>353000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,19 +3402,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
@@ -3175,12 +3426,15 @@
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>900</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,86 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G8" s="3">
         <v>131000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -742,14 +754,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +801,17 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +842,17 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +865,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +900,17 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,23 +941,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G14" s="3">
         <v>26200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -916,14 +976,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1023,17 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,55 +1043,67 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G17" s="3">
         <v>55700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G18" s="3">
         <v>75300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,14 +1113,23 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,22 +1142,25 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1069,29 +1171,38 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G21" s="3">
         <v>76400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1218,17 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1259,99 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G23" s="3">
         <v>75200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1382,99 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G26" s="3">
         <v>75200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G27" s="3">
         <v>75200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1505,17 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1546,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1587,17 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,22 +1628,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1453,46 +1663,64 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G33" s="3">
         <v>75200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1751,104 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G35" s="3">
         <v>75200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1861,11 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1878,52 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>258400</v>
+      </c>
+      <c r="G41" s="3">
         <v>238200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1678,34 +1948,43 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G43" s="3">
         <v>4100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1713,11 +1992,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,25 +2036,34 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1774,14 +2071,23 @@
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1809,58 +2115,76 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>858700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>817300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>782800</v>
+      </c>
+      <c r="G47" s="3">
         <v>821600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>360200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>358700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>357600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>355600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>353900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>352700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,29 +2194,38 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="G49" s="3">
         <v>136900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,14 +2235,23 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2282,17 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2323,58 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2405,58 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1190600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1190300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1195100</v>
+      </c>
+      <c r="G54" s="3">
         <v>1208700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>360400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>359200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>358100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>356300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>354800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>353700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2469,11 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,104 +2486,134 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G59" s="3">
         <v>16400</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2219,13 +2639,22 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2685,17 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2282,14 +2720,23 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2767,17 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2808,17 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2849,58 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G66" s="3">
         <v>24300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>20000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>17100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>15700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>15700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>15800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2913,11 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2948,17 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2989,17 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +3030,17 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +3071,58 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-24800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>2900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>3100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +3153,17 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3194,17 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3235,58 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1179200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1177900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="G76" s="3">
         <v>1184500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>340400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>342000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>342000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>340600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>339200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>337900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3317,104 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G81" s="3">
         <v>75200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,23 +3427,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,14 +3456,23 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3503,17 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3544,17 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3585,17 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3626,17 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3667,58 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G89" s="3">
         <v>97100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,23 +3731,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,14 +3760,23 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3807,17 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3848,58 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>33600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-242300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,16 +3912,19 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-23800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-63400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3245,8 +3947,17 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3988,17 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +4029,17 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +4070,58 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="G100" s="3">
         <v>359600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +4152,54 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G102" s="3">
         <v>214500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E8" s="3">
         <v>29000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>131000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,14 +766,17 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,26 +966,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,67 +1071,71 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E18" s="3">
         <v>23200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,14 +1151,17 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,8 +1195,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1180,32 +1213,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="3">
         <v>23200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>76400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="3">
         <v>23200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>75200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="3">
         <v>23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>75200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="3">
         <v>23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1654,8 +1723,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1672,55 +1741,61 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E33" s="3">
         <v>23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E35" s="3">
         <v>23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E41" s="3">
         <v>173600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>258400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>238200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1957,32 +2046,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,11 +2084,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2062,8 +2160,8 @@
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2072,22 +2170,25 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2124,57 +2225,63 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>798500</v>
+      </c>
+      <c r="E47" s="3">
         <v>858700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>817300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>782800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>821600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>360200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>358700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>357600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>355600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>353900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>352700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="E48" s="3">
         <v>3700</v>
@@ -2183,11 +2290,11 @@
         <v>3700</v>
       </c>
       <c r="G48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2203,32 +2310,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E49" s="3">
         <v>137700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>137800</v>
       </c>
       <c r="F49" s="3">
         <v>137800</v>
       </c>
       <c r="G49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="H49" s="3">
         <v>136900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2358,8 +2477,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2367,14 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1187300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1190600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1190300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1195100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1208700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>360400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>359200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>358100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>353700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2547,12 +2680,12 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2565,55 +2698,61 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E59" s="3">
         <v>7900</v>
       </c>
       <c r="F59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G59" s="3">
         <v>10600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16400</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2648,13 +2787,16 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2729,14 +2874,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>15700</v>
       </c>
       <c r="L66" s="3">
         <v>15700</v>
       </c>
       <c r="M66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="N66" s="3">
         <v>15800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4500</v>
       </c>
       <c r="J72" s="3">
         <v>4500</v>
       </c>
       <c r="K72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L72" s="3">
         <v>3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>400</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1174400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1179200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1177900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1181000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1184500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>340400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>342000</v>
       </c>
       <c r="J76" s="3">
         <v>342000</v>
       </c>
       <c r="K76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="L76" s="3">
         <v>340600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>339200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>337900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E81" s="3">
         <v>23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,11 +3643,11 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>97100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,26 +3953,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3769,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>33600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-242300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3924,11 +4157,11 @@
         <v>-23800</v>
       </c>
       <c r="E96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-63400</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,20 +4333,20 @@
         <v>-23800</v>
       </c>
       <c r="E100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-26400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>359600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4111,17 +4356,20 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,31 +4409,34 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>214500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
@@ -4193,13 +4444,16 @@
       <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,99 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E8" s="3">
         <v>32500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>131000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,14 +773,17 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,29 +986,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>3600</v>
-      </c>
       <c r="H14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I14" s="3">
         <v>26200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,73 +1098,77 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9300</v>
       </c>
-      <c r="G17" s="3">
-        <v>4500</v>
-      </c>
       <c r="H17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I17" s="3">
         <v>55700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E18" s="3">
         <v>19900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19800</v>
       </c>
-      <c r="G18" s="3">
-        <v>27300</v>
-      </c>
       <c r="H18" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I18" s="3">
         <v>75300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1154,14 +1184,17 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1198,8 +1232,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1216,35 +1250,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E21" s="3">
         <v>20000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19800</v>
       </c>
-      <c r="G21" s="3">
-        <v>27300</v>
-      </c>
       <c r="H21" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I21" s="3">
         <v>76400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E23" s="3">
         <v>20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19800</v>
       </c>
-      <c r="G23" s="3">
-        <v>27300</v>
-      </c>
       <c r="H23" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I23" s="3">
         <v>75200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,8 +1411,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1375,31 +1421,34 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19800</v>
       </c>
-      <c r="G26" s="3">
-        <v>27300</v>
-      </c>
       <c r="H26" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I26" s="3">
         <v>75200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19800</v>
       </c>
-      <c r="G27" s="3">
-        <v>27300</v>
-      </c>
       <c r="H27" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I27" s="3">
         <v>75200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1726,8 +1796,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1744,58 +1814,64 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>20000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19800</v>
       </c>
-      <c r="G33" s="3">
-        <v>27300</v>
-      </c>
       <c r="H33" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I33" s="3">
         <v>75200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>20000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19800</v>
       </c>
-      <c r="G35" s="3">
-        <v>27300</v>
-      </c>
       <c r="H35" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I35" s="3">
         <v>75200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E41" s="3">
         <v>223400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>173600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>218000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>258400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>238200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2049,35 +2139,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,11 +2180,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2163,8 +2262,8 @@
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2173,22 +2272,25 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,63 +2330,69 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>804500</v>
+      </c>
+      <c r="E47" s="3">
         <v>798500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>858700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>817300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>782800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>821600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>360200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>358700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>357600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>355600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>353900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>352700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E48" s="3">
         <v>8500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3700</v>
       </c>
       <c r="F48" s="3">
         <v>3700</v>
@@ -2293,11 +2401,11 @@
         <v>3700</v>
       </c>
       <c r="H48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,35 +2421,38 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E49" s="3">
         <v>137600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>137700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>137800</v>
       </c>
       <c r="G49" s="3">
         <v>137800</v>
       </c>
       <c r="H49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="I49" s="3">
         <v>136900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2480,8 +2600,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2489,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1191900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1187300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1190600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1190300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1195100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1208700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>360400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>359200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>358100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>356300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>354800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>353700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2683,12 +2817,12 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2701,58 +2835,64 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E59" s="3">
         <v>8000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>7900</v>
       </c>
       <c r="F59" s="3">
         <v>7900</v>
       </c>
       <c r="G59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H59" s="3">
         <v>10600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16400</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2790,13 +2930,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2877,14 +3023,17 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>15700</v>
       </c>
       <c r="M66" s="3">
         <v>15700</v>
       </c>
       <c r="N66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="O66" s="3">
         <v>15800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4500</v>
       </c>
       <c r="K72" s="3">
         <v>4500</v>
       </c>
       <c r="L72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M72" s="3">
         <v>3100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>400</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1167700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1174400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1179200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1177900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1181000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1184500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>340400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>342000</v>
       </c>
       <c r="K76" s="3">
         <v>342000</v>
       </c>
       <c r="L76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="M76" s="3">
         <v>340600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>339200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>337900</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>20000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19800</v>
       </c>
-      <c r="G81" s="3">
-        <v>27300</v>
-      </c>
       <c r="H81" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I81" s="3">
         <v>75200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +3826,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3646,11 +3845,11 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>97100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4174,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,14 +4213,17 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>65900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-37200</v>
-      </c>
       <c r="G94" s="3">
-        <v>33600</v>
+        <v>-42600</v>
       </c>
       <c r="H94" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-242300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,23 +4381,24 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23800</v>
+        <v>-26500</v>
       </c>
       <c r="E96" s="3">
         <v>-23800</v>
       </c>
       <c r="F96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-63400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4567,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23800</v>
+        <v>-31600</v>
       </c>
       <c r="E100" s="3">
         <v>-23800</v>
       </c>
       <c r="F100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-26400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-37000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>359600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4359,17 +4605,20 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,34 +4661,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E102" s="3">
         <v>49800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>214500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
@@ -4447,13 +4699,16 @@
       <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,106 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E8" s="3">
         <v>29500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>131000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,14 +780,17 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,32 +1006,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
       <c r="H14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1030,14 +1050,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,79 +1125,83 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
-        <v>9300</v>
-      </c>
       <c r="H17" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="3">
         <v>20400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23200</v>
       </c>
-      <c r="G18" s="3">
-        <v>19800</v>
-      </c>
       <c r="H18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I18" s="3">
         <v>26500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,14 +1217,17 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,8 +1269,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1253,38 +1287,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E21" s="3">
         <v>20500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20000</v>
       </c>
-      <c r="F21" s="3">
-        <v>23200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>76400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E23" s="3">
         <v>20400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23200</v>
       </c>
-      <c r="G23" s="3">
-        <v>19800</v>
-      </c>
       <c r="H23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I23" s="3">
         <v>26500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>75200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1414,8 +1460,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1424,31 +1470,34 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E26" s="3">
         <v>20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23200</v>
       </c>
-      <c r="G26" s="3">
-        <v>19800</v>
-      </c>
       <c r="H26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I26" s="3">
         <v>26500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>75200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E27" s="3">
         <v>20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23200</v>
       </c>
-      <c r="G27" s="3">
-        <v>19800</v>
-      </c>
       <c r="H27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I27" s="3">
         <v>26500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1799,8 +1869,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1817,61 +1887,67 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E33" s="3">
         <v>20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23200</v>
       </c>
-      <c r="G33" s="3">
-        <v>19800</v>
-      </c>
       <c r="H33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I33" s="3">
         <v>26500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E35" s="3">
         <v>20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23200</v>
       </c>
-      <c r="G35" s="3">
-        <v>19800</v>
-      </c>
       <c r="H35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I35" s="3">
         <v>26500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E41" s="3">
         <v>204300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>223400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>173600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>218000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>258400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>238200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2142,38 +2232,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E43" s="3">
         <v>16500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,11 +2276,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2265,8 +2364,8 @@
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2275,22 +2374,25 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2333,69 +2435,75 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>814500</v>
+      </c>
+      <c r="E47" s="3">
         <v>804500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>798500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>858700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>817300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>782800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>821600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>360200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>358700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>357600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>355600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>353900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>352700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E48" s="3">
         <v>19400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3700</v>
       </c>
       <c r="G48" s="3">
         <v>3700</v>
@@ -2404,11 +2512,11 @@
         <v>3700</v>
       </c>
       <c r="I48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,14 +2532,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,23 +2550,23 @@
         <v>137500</v>
       </c>
       <c r="E49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="F49" s="3">
         <v>137600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>137700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>137800</v>
       </c>
       <c r="H49" s="3">
         <v>137800</v>
       </c>
       <c r="I49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="J49" s="3">
         <v>136900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2603,8 +2723,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2612,14 +2732,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1185000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1191900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1187300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1190600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1190300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1195100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1208700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>360400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>359200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>358100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>356300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>354800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>353700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2820,12 +2954,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,14 +2972,17 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,46 +2990,49 @@
         <v>17600</v>
       </c>
       <c r="E59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F59" s="3">
         <v>8000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>7900</v>
       </c>
       <c r="G59" s="3">
         <v>7900</v>
       </c>
       <c r="H59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I59" s="3">
         <v>10600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16400</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2933,13 +3073,16 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3026,14 +3172,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E66" s="3">
         <v>24200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>15700</v>
       </c>
       <c r="N66" s="3">
         <v>15700</v>
       </c>
       <c r="O66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="P66" s="3">
         <v>15800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>4500</v>
       </c>
       <c r="L72" s="3">
         <v>4500</v>
       </c>
       <c r="M72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N72" s="3">
         <v>3100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>400</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1158900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1167700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1174400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1179200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1177900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1181000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1184500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>340400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>342000</v>
       </c>
       <c r="L76" s="3">
         <v>342000</v>
       </c>
       <c r="M76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="N76" s="3">
         <v>340600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>339200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>337900</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E81" s="3">
         <v>20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23200</v>
       </c>
-      <c r="G81" s="3">
-        <v>19800</v>
-      </c>
       <c r="H81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I81" s="3">
         <v>26500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,17 +4025,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3848,11 +4047,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,14 +4067,17 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E89" s="3">
         <v>16300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>97100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,23 +4405,23 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4216,14 +4437,17 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>65900</v>
       </c>
-      <c r="F94" s="3">
-        <v>-27400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-42600</v>
+        <v>-43200</v>
       </c>
       <c r="H94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="I94" s="3">
         <v>39000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-242300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,26 +4615,27 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-23800</v>
       </c>
       <c r="F96" s="3">
         <v>-23800</v>
       </c>
       <c r="G96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-63400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,35 +4813,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-23800</v>
       </c>
       <c r="F100" s="3">
         <v>-23800</v>
       </c>
       <c r="G100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-26400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-37000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>359600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4608,17 +4854,20 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,37 +4913,40 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>49800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>214500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
@@ -4702,13 +4954,16 @@
       <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E8" s="3">
         <v>29200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>131000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -783,14 +787,17 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,35 +1026,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
-        <v>-700</v>
-      </c>
       <c r="H14" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I14" s="3">
         <v>4200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,14 +1073,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,85 +1152,89 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12600</v>
       </c>
-      <c r="G17" s="3">
-        <v>5800</v>
-      </c>
       <c r="H17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="3">
         <v>13200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>18300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19900</v>
       </c>
-      <c r="G18" s="3">
-        <v>23200</v>
-      </c>
       <c r="H18" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,14 +1250,17 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1272,8 +1306,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1290,41 +1324,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E21" s="3">
         <v>18500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>25500</v>
       </c>
       <c r="I21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J21" s="3">
         <v>26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>76400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>18300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20000</v>
       </c>
-      <c r="G23" s="3">
-        <v>23200</v>
-      </c>
       <c r="H23" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I23" s="3">
         <v>15800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>75200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1473,31 +1519,34 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E26" s="3">
         <v>18300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20000</v>
       </c>
-      <c r="G26" s="3">
-        <v>23200</v>
-      </c>
       <c r="H26" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I26" s="3">
         <v>15800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>75200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>18300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20000</v>
       </c>
-      <c r="G27" s="3">
-        <v>23200</v>
-      </c>
       <c r="H27" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1872,8 +1942,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1890,64 +1960,70 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>18300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20000</v>
       </c>
-      <c r="G33" s="3">
-        <v>23200</v>
-      </c>
       <c r="H33" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>18300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20000</v>
       </c>
-      <c r="G35" s="3">
-        <v>23200</v>
-      </c>
       <c r="H35" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E41" s="3">
         <v>164000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>204300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>223400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>173600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>258400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>238200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,41 +2325,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E43" s="3">
         <v>12200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,11 +2372,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,34 +2437,37 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2377,22 +2476,25 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>100</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2438,75 +2540,81 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>923500</v>
+      </c>
+      <c r="E47" s="3">
         <v>814500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>804500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>798500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>858700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>817300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>782800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>821600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>360200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>358700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>357600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>355600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>353900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>352700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E48" s="3">
         <v>47900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3700</v>
       </c>
       <c r="H48" s="3">
         <v>3700</v>
@@ -2515,11 +2623,11 @@
         <v>3700</v>
       </c>
       <c r="J48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,41 +2643,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>137500</v>
+        <v>137400</v>
       </c>
       <c r="E49" s="3">
         <v>137500</v>
       </c>
       <c r="F49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="G49" s="3">
         <v>137600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>137700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>137800</v>
       </c>
       <c r="I49" s="3">
         <v>137800</v>
       </c>
       <c r="J49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="K49" s="3">
         <v>136900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,14 +2696,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,8 +2846,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2735,14 +2855,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1178800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1185000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1191900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1187300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1190600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1190300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1195100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1208700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>360400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>359200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>358100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>356300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>354800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>353700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,88 +3011,92 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2975,64 +3109,70 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="E59" s="3">
         <v>17600</v>
       </c>
       <c r="F59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G59" s="3">
         <v>8000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>7900</v>
       </c>
       <c r="H59" s="3">
         <v>7900</v>
       </c>
       <c r="I59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J59" s="3">
         <v>10600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16400</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3076,13 +3216,16 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3175,14 +3321,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E66" s="3">
         <v>26100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>15700</v>
       </c>
       <c r="O66" s="3">
         <v>15700</v>
       </c>
       <c r="P66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>15800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>4500</v>
       </c>
       <c r="M72" s="3">
         <v>4500</v>
       </c>
       <c r="N72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O72" s="3">
         <v>3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>400</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1158900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1167700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1174400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1179200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1177900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1181000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1184500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>340400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>342000</v>
       </c>
       <c r="M76" s="3">
         <v>342000</v>
       </c>
       <c r="N76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="O76" s="3">
         <v>340600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>339200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>337900</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>18300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20000</v>
       </c>
-      <c r="G81" s="3">
-        <v>23200</v>
-      </c>
       <c r="H81" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,20 +4224,21 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4050,11 +4249,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4070,14 +4269,17 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E89" s="3">
         <v>19000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>97100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4616,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4440,14 +4661,17 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
-        <v>65900</v>
-      </c>
       <c r="G94" s="3">
-        <v>-43200</v>
+        <v>61800</v>
       </c>
       <c r="H94" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-26800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>39000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-242300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,29 +4849,30 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-23800</v>
       </c>
       <c r="G96" s="3">
         <v>-23800</v>
       </c>
       <c r="H96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-63400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5059,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-23800</v>
       </c>
       <c r="G100" s="3">
         <v>-23800</v>
       </c>
       <c r="H100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-26400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-37000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>359600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4857,17 +5103,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,40 +5165,43 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-126600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>214500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
@@ -4957,13 +5209,16 @@
       <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E8" s="3">
         <v>30600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,14 +793,17 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1043,24 +1062,24 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,91 +1178,95 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E18" s="3">
         <v>21700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,14 +1282,17 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1309,8 +1342,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1327,44 +1360,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E21" s="3">
         <v>21800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,31 +1422,34 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1439,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,31 +1567,34 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E26" s="3">
         <v>21700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E27" s="3">
         <v>21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1945,8 +2014,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1963,67 +2032,73 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E33" s="3">
         <v>21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E35" s="3">
         <v>21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E41" s="3">
         <v>37400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>164000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>204300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>223400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>258400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>238200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,44 +2417,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,11 +2467,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,11 +2564,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2479,22 +2577,25 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>100</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2543,81 +2644,87 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>901400</v>
+      </c>
+      <c r="E47" s="3">
         <v>923500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>814500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>804500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>798500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>858700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>817300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>782800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>821600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>360200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>358700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>357600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>355600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>353900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>352700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E48" s="3">
         <v>58600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3700</v>
       </c>
       <c r="I48" s="3">
         <v>3700</v>
@@ -2626,11 +2733,11 @@
         <v>3700</v>
       </c>
       <c r="K48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,44 +2753,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E49" s="3">
         <v>137400</v>
-      </c>
-      <c r="E49" s="3">
-        <v>137500</v>
       </c>
       <c r="F49" s="3">
         <v>137500</v>
       </c>
       <c r="G49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="H49" s="3">
         <v>137600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>137700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>137800</v>
       </c>
       <c r="J49" s="3">
         <v>137800</v>
       </c>
       <c r="K49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="L49" s="3">
         <v>136900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2699,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2849,8 +2968,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2858,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1271200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1178800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1185000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1191900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1187300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1190600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1190300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1195100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1208700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>360400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>359200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>358100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>356300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>354800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>353700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,15 +3224,15 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3112,67 +3245,73 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E59" s="3">
         <v>17400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>17600</v>
       </c>
       <c r="F59" s="3">
         <v>17600</v>
       </c>
       <c r="G59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H59" s="3">
         <v>8000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>7900</v>
       </c>
       <c r="I59" s="3">
         <v>7900</v>
       </c>
       <c r="J59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K59" s="3">
         <v>10600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16400</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3219,18 +3358,21 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>97200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3324,14 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E66" s="3">
         <v>25400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>15700</v>
       </c>
       <c r="P66" s="3">
         <v>15700</v>
       </c>
       <c r="Q66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="R66" s="3">
         <v>15800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>4500</v>
       </c>
       <c r="N72" s="3">
         <v>4500</v>
       </c>
       <c r="O72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P72" s="3">
         <v>3100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>400</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1148500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1153400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1158900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1167700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1174400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1179200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1177900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1181000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1184500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>340400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>342000</v>
       </c>
       <c r="N76" s="3">
         <v>342000</v>
       </c>
       <c r="O76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="P76" s="3">
         <v>340600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>339200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>337900</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E81" s="3">
         <v>21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,23 +4422,24 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4252,11 +4450,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4272,14 +4470,17 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>97100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-113700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>61800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>39000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-242300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4859,23 +5092,23 @@
         <v>-27900</v>
       </c>
       <c r="E96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-23800</v>
       </c>
       <c r="H96" s="3">
         <v>-23800</v>
       </c>
       <c r="I96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-63400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-23800</v>
       </c>
       <c r="H100" s="3">
         <v>-23800</v>
       </c>
       <c r="I100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-26400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-37000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>359600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5106,17 +5351,20 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,43 +5416,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-126600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>214500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
@@ -5212,13 +5463,16 @@
       <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
+      <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E8" s="3">
         <v>31300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>131000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,19 +800,22 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>2100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -858,13 +865,16 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>27800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,16 +1065,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1065,24 +1085,24 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,97 +1205,101 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E18" s="3">
         <v>25500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,14 +1315,17 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1379,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1363,47 +1397,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E21" s="3">
         <v>25700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,17 +1462,20 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1451,8 +1491,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>22200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1570,31 +1616,34 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>22200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>22200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2017,8 +2087,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -2035,70 +2105,76 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>22200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>22200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E41" s="3">
         <v>132900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>164000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>204300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>223400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>258400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>238200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2420,47 +2510,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E43" s="3">
         <v>17500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,11 +2563,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2567,11 +2666,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2580,22 +2679,25 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>100</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2647,87 +2749,93 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>931400</v>
+      </c>
+      <c r="E47" s="3">
         <v>901400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>923500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>814500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>804500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>798500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>858700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>817300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>782800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>821600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>360200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>358700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>357600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>355600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>353900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>352700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E48" s="3">
         <v>74100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3700</v>
       </c>
       <c r="J48" s="3">
         <v>3700</v>
@@ -2736,11 +2844,11 @@
         <v>3700</v>
       </c>
       <c r="L48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,47 +2864,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E49" s="3">
         <v>137200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>137400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>137500</v>
       </c>
       <c r="G49" s="3">
         <v>137500</v>
       </c>
       <c r="H49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="I49" s="3">
         <v>137600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>137700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>137800</v>
       </c>
       <c r="K49" s="3">
         <v>137800</v>
       </c>
       <c r="L49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="M49" s="3">
         <v>136900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2971,8 +3091,8 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2980,14 +3100,17 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1262900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1271200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1178800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1185000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1191900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1187300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1190600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1190300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1195100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1208700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>360400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>359200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>358100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>356300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>354800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>353700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3227,15 +3361,15 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3248,70 +3382,76 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E59" s="3">
         <v>17300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>17600</v>
       </c>
       <c r="G59" s="3">
         <v>17600</v>
       </c>
       <c r="H59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I59" s="3">
         <v>8000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>7900</v>
       </c>
       <c r="J59" s="3">
         <v>7900</v>
       </c>
       <c r="K59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L59" s="3">
         <v>10600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16400</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3361,22 +3501,25 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E61" s="3">
         <v>97200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3472,14 +3618,17 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E66" s="3">
         <v>122700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>15700</v>
       </c>
       <c r="Q66" s="3">
         <v>15700</v>
       </c>
       <c r="R66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="S66" s="3">
         <v>15800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>4500</v>
       </c>
       <c r="O72" s="3">
         <v>4500</v>
       </c>
       <c r="P72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>400</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1139300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1148500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1153400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1158900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1167700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1174400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1179200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1177900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1181000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1184500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>340400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>342000</v>
       </c>
       <c r="O76" s="3">
         <v>342000</v>
       </c>
       <c r="P76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>340600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>339200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>337900</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>22200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,17 +4631,17 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4453,11 +4652,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4473,14 +4672,17 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E89" s="3">
         <v>13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>97100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,41 +5057,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,14 +5108,17 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E94" s="3">
         <v>12700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-113700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>61800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-242300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,23 +5329,23 @@
         <v>-27900</v>
       </c>
       <c r="F96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-27800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-23800</v>
       </c>
       <c r="I96" s="3">
         <v>-23800</v>
       </c>
       <c r="J96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-63400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5550,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E100" s="3">
         <v>69100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-23800</v>
       </c>
       <c r="I100" s="3">
         <v>-23800</v>
       </c>
       <c r="J100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-26400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>359600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5354,17 +5600,20 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,46 +5668,49 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E102" s="3">
         <v>95500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-126600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>214500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
@@ -5466,13 +5718,16 @@
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E8" s="3">
         <v>29900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>131000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -803,23 +807,26 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,17 +875,20 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>27800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,19 +1085,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1088,24 +1108,24 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,14 +1141,17 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,103 +1232,107 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E17" s="3">
         <v>11800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
-        <v>10900</v>
-      </c>
       <c r="H17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E18" s="3">
         <v>18100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
-        <v>18300</v>
-      </c>
       <c r="H18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I18" s="3">
         <v>20400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,14 +1348,17 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1365,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1382,8 +1416,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1400,14 +1434,17 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,35 +1452,35 @@
         <v>18300</v>
       </c>
       <c r="E21" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F21" s="3">
         <v>25700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21800</v>
       </c>
-      <c r="G21" s="3">
-        <v>18500</v>
-      </c>
       <c r="H21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I21" s="3">
         <v>20500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>76400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,25 +1502,28 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1534,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E23" s="3">
         <v>18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1619,31 +1665,34 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>75200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2073,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2090,8 +2160,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -2108,73 +2178,79 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E41" s="3">
         <v>97400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>132900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>164000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>204300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>223400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>258400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>238200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,50 +2603,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E43" s="3">
         <v>19500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,11 +2659,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2669,11 +2768,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2682,22 +2781,25 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>100</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2752,93 +2854,99 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>957200</v>
+      </c>
+      <c r="E47" s="3">
         <v>931400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>901400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>923500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>814500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>804500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>798500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>858700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>817300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>782800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>821600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>360200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>358700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>357600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>355600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>353900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>352700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E48" s="3">
         <v>69500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3700</v>
       </c>
       <c r="K48" s="3">
         <v>3700</v>
@@ -2847,11 +2955,11 @@
         <v>3700</v>
       </c>
       <c r="M48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2867,14 +2975,17 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,35 +2993,35 @@
         <v>137000</v>
       </c>
       <c r="E49" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F49" s="3">
         <v>137200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>137400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>137500</v>
       </c>
       <c r="H49" s="3">
         <v>137500</v>
       </c>
       <c r="I49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="J49" s="3">
         <v>137600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>137700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>137800</v>
       </c>
       <c r="L49" s="3">
         <v>137800</v>
       </c>
       <c r="M49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="N49" s="3">
         <v>136900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3094,8 +3214,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3103,14 +3223,17 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1253700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1262900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1271200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1178800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1185000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1191900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1187300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1190600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1190300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1195100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1208700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>360400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>359200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>358100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>356300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>354800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>353700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3364,15 +3498,15 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3385,73 +3519,79 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E59" s="3">
         <v>17200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>17600</v>
       </c>
       <c r="H59" s="3">
         <v>17600</v>
       </c>
       <c r="I59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J59" s="3">
         <v>8000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>7900</v>
       </c>
       <c r="K59" s="3">
         <v>7900</v>
       </c>
       <c r="L59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M59" s="3">
         <v>10600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16400</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3504,25 +3644,28 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E61" s="3">
         <v>97400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>97200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3621,14 +3767,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E66" s="3">
         <v>123600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>122700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>15700</v>
       </c>
       <c r="R66" s="3">
         <v>15700</v>
       </c>
       <c r="S66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="T66" s="3">
         <v>15800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>4500</v>
       </c>
       <c r="P72" s="3">
         <v>4500</v>
       </c>
       <c r="Q72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R72" s="3">
         <v>3100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>400</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1128300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1139300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1148500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1153400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1158900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1167700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1174400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1179200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1177900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1181000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1184500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>340400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>342000</v>
       </c>
       <c r="P76" s="3">
         <v>342000</v>
       </c>
       <c r="Q76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="R76" s="3">
         <v>340600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>339200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>337900</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,29 +4820,30 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4655,11 +4854,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4675,14 +4874,17 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E89" s="3">
         <v>14600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>97100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,44 +5278,45 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5111,14 +5332,17 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-113700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>61800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>39000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-242300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5332,23 +5566,23 @@
         <v>-27900</v>
       </c>
       <c r="G96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-27800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-23800</v>
       </c>
       <c r="J96" s="3">
         <v>-23800</v>
       </c>
       <c r="K96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-63400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,47 +5796,50 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>69100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-23800</v>
       </c>
       <c r="J100" s="3">
         <v>-23800</v>
       </c>
       <c r="K100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="L100" s="3">
         <v>-26400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>359600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5603,17 +5849,20 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,49 +5920,52 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>95500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-126600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>214500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
@@ -5721,13 +5973,16 @@
       <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
         <v>28500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>131000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,22 +814,25 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>2100</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -878,16 +885,19 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>27800</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,47 +1105,50 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,14 +1164,17 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,109 +1259,113 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10100</v>
+        <v>22300</v>
       </c>
       <c r="E17" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="F17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
-        <v>8900</v>
-      </c>
       <c r="H17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I17" s="3">
         <v>10200</v>
       </c>
-      <c r="I17" s="3">
-        <v>9100</v>
-      </c>
       <c r="J17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18400</v>
+        <v>4800</v>
       </c>
       <c r="E18" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="F18" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="3">
         <v>25500</v>
       </c>
-      <c r="G18" s="3">
-        <v>21700</v>
-      </c>
       <c r="H18" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I18" s="3">
         <v>19000</v>
       </c>
-      <c r="I18" s="3">
-        <v>20400</v>
-      </c>
       <c r="J18" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K18" s="3">
         <v>19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,14 +1381,17 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,25 +1414,26 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1419,8 +1453,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1437,53 +1471,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18300</v>
+        <v>5100</v>
       </c>
       <c r="E21" s="3">
         <v>18300</v>
       </c>
       <c r="F21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G21" s="3">
         <v>25700</v>
       </c>
-      <c r="G21" s="3">
-        <v>21800</v>
-      </c>
       <c r="H21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I21" s="3">
         <v>19200</v>
       </c>
-      <c r="I21" s="3">
-        <v>20500</v>
-      </c>
       <c r="J21" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K21" s="3">
         <v>20000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>76400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1505,31 +1542,34 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G22" s="3">
         <v>3300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1537,8 +1577,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1668,31 +1714,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>75200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,25 +2192,28 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2163,8 +2233,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -2181,76 +2251,82 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E41" s="3">
         <v>36000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>132900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>164000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>204300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>223400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>258400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>238200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2606,53 +2696,56 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E43" s="3">
         <v>17500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,11 +2755,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2771,11 +2870,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2784,22 +2883,25 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="U45" s="3">
+        <v>100</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2857,99 +2959,105 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>911700</v>
+      </c>
+      <c r="E47" s="3">
         <v>957200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>931400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>901400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>923500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>814500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>804500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>798500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>858700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>817300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>782800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>821600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>360200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>358700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>357600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>355600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>353900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>352700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E48" s="3">
         <v>99000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3700</v>
       </c>
       <c r="L48" s="3">
         <v>3700</v>
@@ -2958,11 +3066,11 @@
         <v>3700</v>
       </c>
       <c r="N48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,14 +3086,17 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2996,35 +3107,35 @@
         <v>137000</v>
       </c>
       <c r="F49" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G49" s="3">
         <v>137200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>137400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>137500</v>
       </c>
       <c r="I49" s="3">
         <v>137500</v>
       </c>
       <c r="J49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="K49" s="3">
         <v>137600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>137700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>137800</v>
       </c>
       <c r="M49" s="3">
         <v>137800</v>
       </c>
       <c r="N49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="O49" s="3">
         <v>136900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3040,14 +3151,17 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3217,8 +3337,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3226,14 +3346,17 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1232500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1253700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1262900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1271200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1178800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1185000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1191900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1187300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1190600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1190300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1195100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1208700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>360400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>359200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>358100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>356300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>354800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>353700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3501,15 +3635,15 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3522,76 +3656,82 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E59" s="3">
         <v>17100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>17600</v>
       </c>
       <c r="I59" s="3">
         <v>17600</v>
       </c>
       <c r="J59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K59" s="3">
         <v>8000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>7900</v>
       </c>
       <c r="L59" s="3">
         <v>7900</v>
       </c>
       <c r="M59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N59" s="3">
         <v>10600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16400</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3647,28 +3787,31 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E61" s="3">
         <v>97500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>97400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>97200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3770,14 +3916,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E66" s="3">
         <v>125300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>123600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>122700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>15700</v>
       </c>
       <c r="S66" s="3">
         <v>15700</v>
       </c>
       <c r="T66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="U66" s="3">
         <v>15800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-90400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>4500</v>
       </c>
       <c r="Q72" s="3">
         <v>4500</v>
       </c>
       <c r="R72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S72" s="3">
         <v>3100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>400</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1104200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1128300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1139300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1148500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1153400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1158900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1167700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1174400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1179200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1177900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1181000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1184500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>340400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>342000</v>
       </c>
       <c r="Q76" s="3">
         <v>342000</v>
       </c>
       <c r="R76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="S76" s="3">
         <v>340600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>339200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>337900</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,23 +5029,23 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4857,11 +5056,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4877,14 +5076,17 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E89" s="3">
         <v>18400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>97100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,47 +5499,48 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5335,14 +5556,17 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-113700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>61800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>39000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-242300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5569,23 +5803,23 @@
         <v>-27900</v>
       </c>
       <c r="H96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-27800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-23800</v>
       </c>
       <c r="K96" s="3">
         <v>-23800</v>
       </c>
       <c r="L96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-63400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,50 +6042,53 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>69100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-23800</v>
       </c>
       <c r="K100" s="3">
         <v>-23800</v>
       </c>
       <c r="L100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="M100" s="3">
         <v>-26400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>359600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5852,17 +6098,20 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,52 +6172,55 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>95500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-126600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>214500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
@@ -5976,13 +6228,16 @@
       <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,146 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E8" s="3">
         <v>27100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,14 +820,17 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,50 +1124,53 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,115 +1285,119 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E17" s="3">
         <v>22300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-150800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,14 +1413,17 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,23 +1447,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1456,8 +1489,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1474,56 +1507,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="E21" s="3">
         <v>5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>76400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,34 +1593,34 @@
         <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3">
         <v>2100</v>
       </c>
       <c r="G22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H22" s="3">
         <v>3300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1717,31 +1762,34 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>75200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,23 +2261,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2236,8 +2305,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -2254,79 +2323,85 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E41" s="3">
         <v>61100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>132900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>164000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>204300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>223400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>258400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>238200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2699,56 +2788,59 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E43" s="3">
         <v>17200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2758,11 +2850,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2873,11 +2971,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2886,22 +2984,25 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>100</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2962,105 +3063,111 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E47" s="3">
         <v>911700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>957200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>931400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>901400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>923500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>814500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>804500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>798500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>858700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>817300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>782800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>821600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>360200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>358700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>357600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>355600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>353900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>352700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E48" s="3">
         <v>99200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>99000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3700</v>
       </c>
       <c r="M48" s="3">
         <v>3700</v>
@@ -3069,11 +3176,11 @@
         <v>3700</v>
       </c>
       <c r="O48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3089,19 +3196,22 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>137000</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>137000</v>
@@ -3110,35 +3220,35 @@
         <v>137000</v>
       </c>
       <c r="G49" s="3">
+        <v>137000</v>
+      </c>
+      <c r="H49" s="3">
         <v>137200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>137400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>137500</v>
       </c>
       <c r="J49" s="3">
         <v>137500</v>
       </c>
       <c r="K49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="L49" s="3">
         <v>137600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>137700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>137800</v>
       </c>
       <c r="N49" s="3">
         <v>137800</v>
       </c>
       <c r="O49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="P49" s="3">
         <v>136900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3154,14 +3264,17 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3340,8 +3459,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3349,14 +3468,17 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1051500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1232500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1253700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1262900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1271200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1178800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1185000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1191900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1187300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1190600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1190300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1195100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1208700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>360400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>359200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>358100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>356300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>354800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>353700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
         <v>13700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3638,15 +3771,15 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,79 +3792,85 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E59" s="3">
         <v>16900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>17600</v>
       </c>
       <c r="J59" s="3">
         <v>17600</v>
       </c>
       <c r="K59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="L59" s="3">
         <v>8000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>7900</v>
       </c>
       <c r="M59" s="3">
         <v>7900</v>
       </c>
       <c r="N59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O59" s="3">
         <v>10600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16400</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3790,31 +3929,34 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E61" s="3">
         <v>97600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>97500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>97400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>97200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3919,14 +4064,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E66" s="3">
         <v>128300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>125300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>123600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>122700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>15700</v>
       </c>
       <c r="T66" s="3">
         <v>15700</v>
       </c>
       <c r="U66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="V66" s="3">
         <v>15800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-287300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>4500</v>
       </c>
       <c r="R72" s="3">
         <v>4500</v>
       </c>
       <c r="S72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T72" s="3">
         <v>3100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>400</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>928100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1104200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1128300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1139300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1148500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1153400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1158900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1167700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1174400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1179200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1177900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1181000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1184500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>340400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>342000</v>
       </c>
       <c r="R76" s="3">
         <v>342000</v>
       </c>
       <c r="S76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="T76" s="3">
         <v>340600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>339200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>337900</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,35 +5217,36 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5059,11 +5257,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5079,14 +5277,17 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E89" s="3">
         <v>15600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>97100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5509,41 +5729,41 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5559,14 +5779,17 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E94" s="3">
         <v>37500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-113700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>61800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>39000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-242300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,13 +6017,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27900</v>
+        <v>-23300</v>
       </c>
       <c r="E96" s="3">
         <v>-27900</v>
@@ -5806,23 +6039,23 @@
         <v>-27900</v>
       </c>
       <c r="I96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-27800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-23800</v>
       </c>
       <c r="L96" s="3">
         <v>-23800</v>
       </c>
       <c r="M96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-63400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,53 +6287,56 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>69100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-23800</v>
       </c>
       <c r="L100" s="3">
         <v>-23800</v>
       </c>
       <c r="M100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="N100" s="3">
         <v>-26400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>359600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6101,17 +6346,20 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,55 +6423,58 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>95500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-126600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>214500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-200</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
@@ -6231,13 +6482,16 @@
       <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
+      <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>BRMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E8" s="3">
         <v>23400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,14 +827,17 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,53 +1144,56 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3">
         <v>142700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,37 +1209,40 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,121 +1312,125 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E17" s="3">
         <v>174200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-150800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,14 +1446,17 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,26 +1481,27 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1492,8 +1526,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1510,59 +1544,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-150300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>76400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,46 +1621,49 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
         <v>2200</v>
       </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G22" s="3">
         <v>2100</v>
       </c>
       <c r="H22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I22" s="3">
         <v>3300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-153000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>75200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1765,31 +1811,34 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-153000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>75200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-153000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,26 +2331,29 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2308,8 +2378,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2326,82 +2396,88 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-153000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-153000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E41" s="3">
         <v>55000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>132900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>164000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>223400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>173600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>218000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>258400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>238200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2791,59 +2881,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E43" s="3">
         <v>14800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2853,11 +2946,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2974,11 +3073,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2987,22 +3086,25 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>100</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3066,111 +3168,117 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>784900</v>
+      </c>
+      <c r="E47" s="3">
         <v>882000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>911700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>957200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>931400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>901400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>923500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>814500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>804500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>798500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>858700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>817300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>782800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>821600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>360200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>358700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>357600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>355600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>353900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>352700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E48" s="3">
         <v>93500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>99200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>99000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3700</v>
       </c>
       <c r="N48" s="3">
         <v>3700</v>
@@ -3179,11 +3287,11 @@
         <v>3700</v>
       </c>
       <c r="P48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,22 +3307,25 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>137000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>137000</v>
@@ -3223,35 +3334,35 @@
         <v>137000</v>
       </c>
       <c r="H49" s="3">
+        <v>137000</v>
+      </c>
+      <c r="I49" s="3">
         <v>137200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>137400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>137500</v>
       </c>
       <c r="K49" s="3">
         <v>137500</v>
       </c>
       <c r="L49" s="3">
+        <v>137500</v>
+      </c>
+      <c r="M49" s="3">
         <v>137600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>137700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>137800</v>
       </c>
       <c r="O49" s="3">
         <v>137800</v>
       </c>
       <c r="P49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>136900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,14 +3378,17 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3462,8 +3582,8 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3471,14 +3591,17 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1039500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1051500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1232500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1253700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1262900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1271200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1178800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1185000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1191900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1187300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1190600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1190300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1195100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1208700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>360400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>359200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>358100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>356300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>354800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>353700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3774,15 +3908,15 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,82 +3929,88 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>17600</v>
       </c>
       <c r="K59" s="3">
         <v>17600</v>
       </c>
       <c r="L59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M59" s="3">
         <v>8000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>7900</v>
       </c>
       <c r="N59" s="3">
         <v>7900</v>
       </c>
       <c r="O59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P59" s="3">
         <v>10600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16400</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3932,34 +4072,37 @@
         <v>0</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E61" s="3">
         <v>97800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>97600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>97500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>97400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>97200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4067,14 +4213,17 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E66" s="3">
         <v>123500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>128300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>125300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>123600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>15700</v>
       </c>
       <c r="U66" s="3">
         <v>15700</v>
       </c>
       <c r="V66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="W66" s="3">
         <v>15800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-296500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-287300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-115700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-90400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>4500</v>
       </c>
       <c r="S72" s="3">
         <v>4500</v>
       </c>
       <c r="T72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U72" s="3">
         <v>3100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>400</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>919500</v>
+      </c>
+      <c r="E76" s="3">
         <v>928100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1104200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1128300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1139300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1148500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1153400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1158900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1167700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1174400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1179200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1177900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1181000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1184500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>340400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>342000</v>
       </c>
       <c r="S76" s="3">
         <v>342000</v>
       </c>
       <c r="T76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="U76" s="3">
         <v>340600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>339200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>337900</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-153000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,29 +5426,29 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5260,11 +5459,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5280,14 +5479,17 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>8600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>97100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,53 +5940,54 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F91" s="3">
-        <v>100</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-1200</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-1800</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5782,14 +6003,17 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>37500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-113700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>61800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>39000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-242300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,16 +6251,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-27900</v>
       </c>
       <c r="F96" s="3">
         <v>-27900</v>
@@ -6042,23 +6276,23 @@
         <v>-27900</v>
       </c>
       <c r="J96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-23800</v>
       </c>
       <c r="M96" s="3">
         <v>-23800</v>
       </c>
       <c r="N96" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-63400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,56 +6533,59 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>69100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-23800</v>
       </c>
       <c r="M100" s="3">
         <v>-23800</v>
       </c>
       <c r="N100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="O100" s="3">
         <v>-26400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>359600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6349,17 +6595,20 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,58 +6675,61 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>95500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-126600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>214500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-200</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
@@ -6485,13 +6737,16 @@
       <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3" t="s">
+      <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
